--- a/poc-professionnel/ig/StructureDefinition-DESC1.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-DESC1.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T11:52:46+00:00</t>
+    <t>2025-07-21T14:08:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-DESC1.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-DESC1.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T14:08:48+00:00</t>
+    <t>2025-07-22T15:23:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-DESC1.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-DESC1.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-22T15:23:11+00:00</t>
+    <t>2025-07-23T06:24:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -238,7 +238,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Les DESC de groupe I ou non qualifiants (2 ans d'études) offrent une compétence supplémentaire ou un champ d'exercice plus large que celui ouvert par le DES, mais ne changent pas la qualification officielle de leurs titulaires auprès de l'Ordre des Médecins. Ils peuvent aussi apporter à des spécialistes des connaissances générales intéressant plusieurs spécialités (allergologie, cancérologie, etc.). Certains de ces DESC sont redondants avec des capacités de médecine, obtenues par la formation continue des médecins déjà diplômés, par exemple la capacité de médecine d'urgence. Il est cependant probable que les capacités disparaissent au profit des DESC équivalents dans un avenir proche.Dans le cadre du modèle, un DESC de groupe I est un type de diplôme. La classe DESC1 est représentée dans le modèle comme une spécialisation de la classe Diplome et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
+    <t>Les DESC de groupe I ou non qualifiants (2 ans d'études) offrent une compétence supplémentaire ou un champ d'exercice plus large que celui ouvert par le DES, mais ne changent pas la qualification officielle de leurs titulaires auprès de l'Ordre des Médecins. Ils peuvent aussi apporter à des spécialistes des connaissances générales intéressant plusieurs spécialités (allergologie, cancérologie, etc.). Certains de ces DESC sont redondants avec des capacités de médecine, obtenues par la formation continue des médecins déjà diplômés, par exemple la capacité de médecine d'urgence. Il est cependant probable que les capacités disparaissent au profit des DESC équivalents dans un avenir proche.Dans le cadre du modèle, un DESC de groupe I est un type de diplôme. La classe DESC1 est représentée dans le modèle comme une spécialisation de la classe Diplome et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
   </si>
   <si>
     <t>Base</t>
@@ -254,7 +254,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Type de diplôme, par exemple:** DE : Diplôme d’Etat français** CES : Certificat d’Etudes Spéciales** DES : Diplôme d'Etudes Spécialisées** etc.</t>
+    <t>Type de diplôme, par exemple:** DE : Diplôme d’Etat français** CES : Certificat d’Etudes Spéciales** DES : Diplôme d'Etudes Spécialisées** etc.</t>
   </si>
   <si>
     <t>preferred</t>
@@ -269,7 +269,7 @@
     <t>DESC1.lieuFormation</t>
   </si>
   <si>
-    <t xml:space="preserve"> Lieu de formation pour l'obtention du diplôme. Par exemple:** U37 : Université de Tours (Université François Rabelais)** UP5 : Université de Paris 05 (Université René Descartes).</t>
+    <t>Lieu de formation pour l'obtention du diplôme. Par exemple:** U37 : Université de Tours (Université François Rabelais)** UP5 : Université de Paris 05 (Université René Descartes).</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R16-LieuFormation?vs</t>
@@ -285,7 +285,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Date d’obtention du diplôme.</t>
+    <t>Date d’obtention du diplôme.</t>
   </si>
   <si>
     <t>Diplome.dateDiplome</t>
@@ -298,7 +298,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Numéro du diplôme.</t>
+    <t>Numéro du diplôme.</t>
   </si>
   <si>
     <t>Diplome.numeroDiplome</t>
@@ -307,7 +307,7 @@
     <t>DESC1.DESC1</t>
   </si>
   <si>
-    <t xml:space="preserve"> Diplôme d'études spécialisées complémentaires non qualifiants (DESC I).</t>
+    <t>Diplôme d'études spécialisées complémentaires non qualifiants (DESC I).</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R50-DESCGroupe1Diplome?vs</t>

--- a/poc-professionnel/ig/StructureDefinition-DESC1.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-DESC1.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-23T06:24:09+00:00</t>
+    <t>2025-07-24T12:59:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-DESC1.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-DESC1.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T12:59:21+00:00</t>
+    <t>2025-07-24T13:17:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-DESC1.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-DESC1.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T13:17:05+00:00</t>
+    <t>2025-07-25T07:22:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -260,7 +260,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R14-TypeDiplome?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R14-TypeDiplome/FHIR/TRE-R14-TypeDiplome?vs</t>
   </si>
   <si>
     <t>Diplome.typeDiplome</t>
@@ -272,7 +272,7 @@
     <t>Lieu de formation pour l'obtention du diplôme. Par exemple:** U37 : Université de Tours (Université François Rabelais)** UP5 : Université de Paris 05 (Université René Descartes).</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R16-LieuFormation?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R16-LieuFormation/FHIR/TRE-R16-LieuFormation?vs</t>
   </si>
   <si>
     <t>Diplome.lieuFormation</t>
@@ -310,7 +310,7 @@
     <t>Diplôme d'études spécialisées complémentaires non qualifiants (DESC I).</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R50-DESCGroupe1Diplome?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R50-DESCGroupe1Diplome/FHIR/TRE-R50-DESCGroupe1Diplome?vs</t>
   </si>
 </sst>
 </file>
@@ -647,7 +647,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="73.828125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="83.5234375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>

--- a/poc-professionnel/ig/StructureDefinition-DESC1.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-DESC1.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T07:22:51+00:00</t>
+    <t>2025-07-25T07:53:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-DESC1.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-DESC1.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T07:53:56+00:00</t>
+    <t>2025-07-25T12:35:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-DESC1.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-DESC1.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T12:35:19+00:00</t>
+    <t>2025-07-25T12:45:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-DESC1.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-DESC1.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T12:45:05+00:00</t>
+    <t>2025-07-25T12:50:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-DESC1.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-DESC1.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T12:50:30+00:00</t>
+    <t>2025-07-29T07:08:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-DESC1.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-DESC1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="98">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-29T07:08:53+00:00</t>
+    <t>2025-07-31T13:33:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Les DESC de groupe I ou non qualifiants (2 ans d'études) offrent une compétence supplémentaire ou un champ d'exercice plus large que celui ouvert par le DES, mais ne changent pas la qualification officielle de leurs titulaires auprès de l'Ordre des Médecins. Ils peuvent aussi apporter à des spécialistes des connaissances générales intéressant plusieurs spécialités (allergologie, cancérologie, etc.). Certains de ces DESC sont redondants avec des capacités de médecine, obtenues par la formation continue des médecins déjà diplômés, par exemple la capacité de médecine d'urgence. Il est cependant probable que les capacités disparaissent au profit des DESC équivalents dans un avenir proche.Dans le cadre du modèle, un DESC de groupe I est un type de diplôme. La classe DESC1 est représentée dans le modèle comme une spécialisation de la classe Diplome et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -236,9 +239,6 @@
   <si>
     <t xml:space="preserve">
 </t>
-  </si>
-  <si>
-    <t>Les DESC de groupe I ou non qualifiants (2 ans d'études) offrent une compétence supplémentaire ou un champ d'exercice plus large que celui ouvert par le DES, mais ne changent pas la qualification officielle de leurs titulaires auprès de l'Ordre des Médecins. Ils peuvent aussi apporter à des spécialistes des connaissances générales intéressant plusieurs spécialités (allergologie, cancérologie, etc.). Certains de ces DESC sont redondants avec des capacités de médecine, obtenues par la formation continue des médecins déjà diplômés, par exemple la capacité de médecine d'urgence. Il est cependant probable que les capacités disparaissent au profit des DESC équivalents dans un avenir proche.Dans le cadre du modèle, un DESC de groupe I est un type de diplôme. La classe DESC1 est représentée dans le modèle comme une spécialisation de la classe Diplome et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
   </si>
   <si>
     <t>Base</t>
@@ -544,39 +544,41 @@
       <c r="A12" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>3</v>
@@ -584,26 +586,26 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -661,112 +663,112 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2">
@@ -778,95 +780,95 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
@@ -878,23 +880,23 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K3" t="s" s="2">
         <v>78</v>
@@ -908,26 +910,26 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X3" t="s" s="2">
         <v>80</v>
@@ -937,34 +939,34 @@
         <v>81</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4">
@@ -976,23 +978,23 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>78</v>
@@ -1006,26 +1008,26 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s" s="2">
         <v>80</v>
@@ -1035,34 +1037,34 @@
         <v>85</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
@@ -1074,23 +1076,23 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>88</v>
@@ -1104,65 +1106,65 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -1174,23 +1176,23 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>92</v>
@@ -1204,65 +1206,65 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
@@ -1274,23 +1276,23 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>78</v>
@@ -1304,26 +1306,26 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X7" t="s" s="2">
         <v>80</v>
@@ -1333,34 +1335,34 @@
         <v>97</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/poc-professionnel/ig/StructureDefinition-DESC1.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-DESC1.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/DESC1</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/DESC1</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T13:33:48+00:00</t>
+    <t>2025-10-13T08:05:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,7 +105,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/Diplome</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/Diplome</t>
   </si>
   <si>
     <t>Abstract</t>
